--- a/data/trans_dic/P1418-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1418-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02722291349317017</v>
+        <v>0.02758719786978173</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002349988975409736</v>
+        <v>0.002352848996528445</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007619828163778136</v>
+        <v>0.007557945863923635</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01638307543678394</v>
+        <v>0.01757742989318259</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05180129593272657</v>
+        <v>0.0537989472165158</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009764339096306805</v>
+        <v>0.009450732697244656</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01985720557461467</v>
+        <v>0.02042331011335466</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03711071349844107</v>
+        <v>0.0375436720756524</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04327583282876993</v>
+        <v>0.04358079401993398</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007714918020316494</v>
+        <v>0.008261497806497145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01734242477516956</v>
+        <v>0.01747481531823753</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03103492177186937</v>
+        <v>0.02881751134723477</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06575493773752913</v>
+        <v>0.06555952082955067</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02140532572815854</v>
+        <v>0.02360065635972974</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03565987403600041</v>
+        <v>0.03587828186963336</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04344855752920335</v>
+        <v>0.04499202094527938</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1150951943688788</v>
+        <v>0.1183812612092486</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04398819562183858</v>
+        <v>0.04482751713843545</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06399319098270399</v>
+        <v>0.06705779992710055</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07255293341917839</v>
+        <v>0.07287954025931268</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07713980668734817</v>
+        <v>0.07586347751675271</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02627446029529121</v>
+        <v>0.02672599223167622</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04359526423869366</v>
+        <v>0.04256368672605328</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05253145444480757</v>
+        <v>0.05121753919260338</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.0217596391424175</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05688175602770674</v>
+        <v>0.05688175602770675</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05223450806629409</v>
@@ -833,7 +833,7 @@
         <v>0.01437629190329797</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03966709377266101</v>
+        <v>0.03966709377266099</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02898165939000179</v>
+        <v>0.02818739741712315</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007245937820885964</v>
+        <v>0.007072288922503727</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002026858315881649</v>
+        <v>0.002013814179833298</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01415483313184205</v>
+        <v>0.013950164798368</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03490282582087286</v>
+        <v>0.03517117704967343</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02866860089793748</v>
+        <v>0.02503433019368959</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008850342477880996</v>
+        <v>0.009701986653379421</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04023372762182076</v>
+        <v>0.04059620006663983</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03677733331680091</v>
+        <v>0.03840189760656574</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02025713167523883</v>
+        <v>0.01912721263463251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.007099002015071277</v>
+        <v>0.00750415044814977</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02960760074217413</v>
+        <v>0.02953754457323249</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07082903897214467</v>
+        <v>0.07407824401631463</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03800234101462176</v>
+        <v>0.04090326029048488</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0197482568219879</v>
+        <v>0.01918782634330532</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04073448697993913</v>
+        <v>0.03930920090709414</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08585463771387135</v>
+        <v>0.08623229247637407</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07988182633945333</v>
+        <v>0.07642020145471928</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0425667391100084</v>
+        <v>0.04462924077893489</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07911247261891798</v>
+        <v>0.08101541035860689</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0707852775716428</v>
+        <v>0.07290761533748541</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0468896257148554</v>
+        <v>0.04649629229754373</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02467889303256393</v>
+        <v>0.02582414648676783</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05205969629165533</v>
+        <v>0.05251476550864598</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03476131596736302</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07806198282870609</v>
+        <v>0.07806198282870611</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04042247716161665</v>
+        <v>0.03881945035391086</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02028121583302319</v>
+        <v>0.01983792923491225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009347884326261477</v>
+        <v>0.009106725072166134</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03248584415034871</v>
+        <v>0.03401001324567345</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05712992064824818</v>
+        <v>0.05967600324815349</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07625133335462302</v>
+        <v>0.07587817860360596</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04799733070009775</v>
+        <v>0.04660536299098794</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1157038215129365</v>
+        <v>0.1139744857378679</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05092088060225164</v>
+        <v>0.0518296945483275</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04137946629745053</v>
+        <v>0.04236176786716474</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02331177052015475</v>
+        <v>0.02197601142024011</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06119560434363271</v>
+        <v>0.06222158787468317</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07879591776133947</v>
+        <v>0.08057336360132167</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04954500868981191</v>
+        <v>0.04957153936337502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03412063957269366</v>
+        <v>0.03483661136552523</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07166572198402799</v>
+        <v>0.07164919925415288</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1573280561967301</v>
+        <v>0.1590123726500287</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1564383240257725</v>
+        <v>0.1582214549831397</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1432328578122378</v>
+        <v>0.1451836465576234</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1966758581749656</v>
+        <v>0.1983083942317498</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08895129995179273</v>
+        <v>0.09173879558028529</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07337910879828335</v>
+        <v>0.07365119265671663</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05038169850732037</v>
+        <v>0.05092429779697283</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09893534450553973</v>
+        <v>0.09857271180091413</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.04673615199240543</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06774335399892323</v>
+        <v>0.06774335399892324</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07142318378033082</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05384304002862005</v>
+        <v>0.05404267088534941</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03509598077028015</v>
+        <v>0.03437987918757692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01876516016285061</v>
+        <v>0.01888956936990827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04667753888657714</v>
+        <v>0.0479341354115198</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05991044548354757</v>
+        <v>0.06054475257416223</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04724184543742781</v>
+        <v>0.05024333461013413</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03150423226224935</v>
+        <v>0.03345992096224522</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05498653856582364</v>
+        <v>0.05568280473965661</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06107006422043871</v>
+        <v>0.06009144569852324</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04414718482945099</v>
+        <v>0.04448467197622411</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02749993557036742</v>
+        <v>0.02764730971939547</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05435402976680462</v>
+        <v>0.05387186724207127</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08204797357473659</v>
+        <v>0.08105273559090492</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06201614642514974</v>
+        <v>0.06068819163276178</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03907548837450709</v>
+        <v>0.03857473891915779</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07202851139663916</v>
+        <v>0.07332551115785602</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09985086015853036</v>
+        <v>0.09959565067320665</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08499113729121625</v>
+        <v>0.08876198371053458</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06226650483555899</v>
+        <v>0.06399773912398503</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08245835832610103</v>
+        <v>0.08252295482490743</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08352543435310332</v>
+        <v>0.08215028916854138</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06643299233271339</v>
+        <v>0.0667904695001609</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04536263253341196</v>
+        <v>0.04501218859672829</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07192879518777627</v>
+        <v>0.072452707586712</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.07473076844239968</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09899852734544078</v>
+        <v>0.09899852734544075</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04706282460513473</v>
+        <v>0.04529952758455829</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02022825377095605</v>
+        <v>0.02096209166100915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0332571681376639</v>
+        <v>0.03282457590951847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03196949756060705</v>
+        <v>0.03125523188468469</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08997982450133409</v>
+        <v>0.08729109394145998</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1081794930841968</v>
+        <v>0.1080180587747949</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07601507470300675</v>
+        <v>0.07366695000802451</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1183563804727593</v>
+        <v>0.1197768381815049</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07867961906344999</v>
+        <v>0.0786919048665272</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07788142800578952</v>
+        <v>0.07848635604147097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06158257319342503</v>
+        <v>0.06084799886534143</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08694637696729775</v>
+        <v>0.08788040715738336</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1022669312332976</v>
+        <v>0.1027347408886264</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05394348528051656</v>
+        <v>0.05453977617736735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0679818906251209</v>
+        <v>0.06732186669622774</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06410066218785263</v>
+        <v>0.06343782853400316</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1442582828773792</v>
+        <v>0.1444465269335934</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1596730885346034</v>
+        <v>0.1575627480810416</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1218867262633923</v>
+        <v>0.1214420753889317</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1541961128776727</v>
+        <v>0.1538023199643223</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1184098581795429</v>
+        <v>0.1175957536406382</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1117829343708972</v>
+        <v>0.1121532934225821</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09073125429132076</v>
+        <v>0.0888924322542929</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1132632598599969</v>
+        <v>0.1130810919528922</v>
       </c>
     </row>
     <row r="19">
@@ -1388,38 +1388,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002756654906519327</v>
+        <v>0.002740304704174946</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003396533693952206</v>
+        <v>0.003441997460907456</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.002182914442317148</v>
+        <v>0.002157897194795021</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.109393036152572</v>
+        <v>0.1091923941838369</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1074840090281676</v>
+        <v>0.1091206019915386</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08020372382612521</v>
+        <v>0.07843407980608003</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07436268969254405</v>
+        <v>0.07291503503600111</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09073544261010509</v>
+        <v>0.08955550913747692</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08791469475696792</v>
+        <v>0.08772100983082234</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06243675658373082</v>
+        <v>0.06297754788488101</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06113501026977945</v>
+        <v>0.06045810284675</v>
       </c>
     </row>
     <row r="21">
@@ -1430,38 +1430,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02629677534917512</v>
+        <v>0.02450362708251646</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02905968511754727</v>
+        <v>0.02932953183050296</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.07338762072273787</v>
+        <v>0.08083391416057779</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1479713621738481</v>
+        <v>0.1470435016837182</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1496788684599456</v>
+        <v>0.1509933001866763</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1182903169956043</v>
+        <v>0.118115756043842</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1052947186982172</v>
+        <v>0.1035587041819909</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1211214111155434</v>
+        <v>0.1211316047212368</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1211404962771537</v>
+        <v>0.1222085148166679</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09284441433696736</v>
+        <v>0.09509489955379791</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08821903199379144</v>
+        <v>0.08967230619588175</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>0.07136715035172352</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.08923965465116948</v>
+        <v>0.08923965465116947</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.07855144241029403</v>
@@ -1509,7 +1509,7 @@
         <v>0.04824873848329353</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.06659579813862762</v>
+        <v>0.06659579813862763</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0476107406512051</v>
+        <v>0.04755038040397303</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0256691010989679</v>
+        <v>0.0260551834504635</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01891968311940731</v>
+        <v>0.01864902608687391</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03653769867456411</v>
+        <v>0.03669514026914991</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09155280222508745</v>
+        <v>0.09237009630328803</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08785596994717701</v>
+        <v>0.08668035759365217</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06311701292255821</v>
+        <v>0.06307676343347282</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08124159680834687</v>
+        <v>0.08163427141432308</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07206366878092683</v>
+        <v>0.07170403330143735</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05888482878898534</v>
+        <v>0.05867055589412969</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04291205063288497</v>
+        <v>0.04298432215523629</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06179996553738883</v>
+        <v>0.06177554636919443</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06375389069760287</v>
+        <v>0.06286206843168221</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03794897669720596</v>
+        <v>0.03861636274806003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02962327576724842</v>
+        <v>0.02989812926755821</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04982264443292245</v>
+        <v>0.04993498647126374</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1131128959685174</v>
+        <v>0.113037840232502</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1078056852336268</v>
+        <v>0.1074216695627569</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08136102563594937</v>
+        <v>0.08135147053555847</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09711503797216306</v>
+        <v>0.09645715430316174</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08555082770107739</v>
+        <v>0.08515586445611117</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.07147237626312171</v>
+        <v>0.07119048569049495</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05430478409533197</v>
+        <v>0.05404972714488999</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07170243211082966</v>
+        <v>0.07174258733885758</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12898</v>
+        <v>13070</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3270</v>
+        <v>3243</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9021</v>
+        <v>9678</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15886</v>
+        <v>16499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3070</v>
+        <v>2972</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6892</v>
+        <v>7088</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18072</v>
+        <v>18283</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>33775</v>
+        <v>34013</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5799</v>
+        <v>6210</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13460</v>
+        <v>13563</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>32202</v>
+        <v>29901</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31153</v>
+        <v>31061</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9359</v>
+        <v>10318</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15301</v>
+        <v>15395</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23924</v>
+        <v>24773</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35297</v>
+        <v>36305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13832</v>
+        <v>14096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22209</v>
+        <v>23273</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>35332</v>
+        <v>35491</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>60204</v>
+        <v>59208</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19750</v>
+        <v>20089</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>33836</v>
+        <v>33036</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>54507</v>
+        <v>53143</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10634</v>
+        <v>10343</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3035</v>
+        <v>2962</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6824</v>
+        <v>6726</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12979</v>
+        <v>13079</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9690</v>
+        <v>8462</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3295</v>
+        <v>3612</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16998</v>
+        <v>17152</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>27171</v>
+        <v>28371</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>15331</v>
+        <v>14476</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5321</v>
+        <v>5624</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>26783</v>
+        <v>26720</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25990</v>
+        <v>27182</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15915</v>
+        <v>17130</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7450</v>
+        <v>7238</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19639</v>
+        <v>18952</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31926</v>
+        <v>32067</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>27001</v>
+        <v>25831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15846</v>
+        <v>16614</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>33424</v>
+        <v>34228</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>52296</v>
+        <v>53864</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>35486</v>
+        <v>35189</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>18497</v>
+        <v>19355</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>47094</v>
+        <v>47505</v>
       </c>
     </row>
     <row r="12">
@@ -2230,40 +2230,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21925</v>
+        <v>21055</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12765</v>
+        <v>12486</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4879</v>
+        <v>4753</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15292</v>
+        <v>16010</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9585</v>
+        <v>10013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19835</v>
+        <v>19738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7973</v>
+        <v>7742</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21694</v>
+        <v>21370</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>36163</v>
+        <v>36808</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36809</v>
+        <v>37683</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16039</v>
+        <v>15120</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>40281</v>
+        <v>40957</v>
       </c>
     </row>
     <row r="15">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>42738</v>
+        <v>43702</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31184</v>
+        <v>31201</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17808</v>
+        <v>18182</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33736</v>
+        <v>33728</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26397</v>
+        <v>26679</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>40694</v>
+        <v>41158</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23794</v>
+        <v>24118</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36876</v>
+        <v>37182</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>63171</v>
+        <v>65150</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>65274</v>
+        <v>65516</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>34664</v>
+        <v>35038</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>65123</v>
+        <v>64885</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66676</v>
+        <v>66923</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>40677</v>
+        <v>39847</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21573</v>
+        <v>21716</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>52779</v>
+        <v>54200</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>42793</v>
+        <v>43246</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>36127</v>
+        <v>38422</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26019</v>
+        <v>27634</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>47195</v>
+        <v>47792</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>119247</v>
+        <v>117336</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>84927</v>
+        <v>85577</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>54327</v>
+        <v>54618</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>108110</v>
+        <v>107151</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>101603</v>
+        <v>100370</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>71877</v>
+        <v>70338</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44923</v>
+        <v>44347</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>81443</v>
+        <v>82910</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>71322</v>
+        <v>71140</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>64995</v>
+        <v>67878</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>51424</v>
+        <v>52854</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>70774</v>
+        <v>70829</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>163093</v>
+        <v>160408</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>127799</v>
+        <v>128487</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>89615</v>
+        <v>88922</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>143067</v>
+        <v>144109</v>
       </c>
     </row>
     <row r="20">
@@ -2590,40 +2590,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16498</v>
+        <v>15880</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10328</v>
+        <v>10703</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20643</v>
+        <v>20374</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18081</v>
+        <v>17677</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>51176</v>
+        <v>49647</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>82243</v>
+        <v>82120</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>56118</v>
+        <v>54384</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>98008</v>
+        <v>99184</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>72331</v>
+        <v>72342</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>98975</v>
+        <v>99744</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>83688</v>
+        <v>82689</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>121173</v>
+        <v>122475</v>
       </c>
     </row>
     <row r="23">
@@ -2634,40 +2634,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35850</v>
+        <v>36014</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>27543</v>
+        <v>27848</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42197</v>
+        <v>41787</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>36254</v>
+        <v>35879</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>82047</v>
+        <v>82154</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>121391</v>
+        <v>119786</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>89982</v>
+        <v>89654</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>127686</v>
+        <v>127360</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>108855</v>
+        <v>108107</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>142059</v>
+        <v>142529</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>123299</v>
+        <v>120800</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>157850</v>
+        <v>157596</v>
       </c>
     </row>
     <row r="24">
@@ -2770,38 +2770,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>136606</v>
+        <v>136355</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>119125</v>
+        <v>120939</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>86782</v>
+        <v>84868</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>62711</v>
+        <v>61490</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>140364</v>
+        <v>138539</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>120899</v>
+        <v>120633</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>85487</v>
+        <v>86227</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>66059</v>
+        <v>65327</v>
       </c>
     </row>
     <row r="27">
@@ -2812,38 +2812,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7842</v>
+        <v>7307</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7756</v>
+        <v>7828</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>17410</v>
+        <v>19176</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>184781</v>
+        <v>183622</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>165890</v>
+        <v>167347</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>127993</v>
+        <v>127804</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>88796</v>
+        <v>87332</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>187370</v>
+        <v>187386</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>166591</v>
+        <v>168060</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>127120</v>
+        <v>130201</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>95324</v>
+        <v>96894</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>155696</v>
+        <v>155499</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>87837</v>
+        <v>89158</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>64057</v>
+        <v>63140</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>125580</v>
+        <v>126121</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>309277</v>
+        <v>312038</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>311526</v>
+        <v>307357</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>222904</v>
+        <v>222762</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>294635</v>
+        <v>296060</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>479102</v>
+        <v>476711</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>410296</v>
+        <v>408803</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>296836</v>
+        <v>297336</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>436533</v>
+        <v>436361</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>208487</v>
+        <v>205571</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>129858</v>
+        <v>132142</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>100296</v>
+        <v>101227</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>171240</v>
+        <v>171626</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>382109</v>
+        <v>381856</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>382265</v>
+        <v>380903</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>287334</v>
+        <v>287301</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>352203</v>
+        <v>349817</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>568769</v>
+        <v>566143</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>498004</v>
+        <v>496040</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>375643</v>
+        <v>373879</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>506481</v>
+        <v>506765</v>
       </c>
     </row>
     <row r="32">
